--- a/medicine/Psychotrope/Contessa_Entellina_Cabernet_Sauvignon/Contessa_Entellina_Cabernet_Sauvignon.xlsx
+++ b/medicine/Psychotrope/Contessa_Entellina_Cabernet_Sauvignon/Contessa_Entellina_Cabernet_Sauvignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Contessa Entellina Cabernet Sauvignon est un vin rouge de la région Sicile doté d'une appellation DOC depuis le 2 août 1993. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Palerme dans la commune de Contessa Entellina.
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis  intense
 odeur : caractéristique, agréable, intense
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
